--- a/Plan.xlsx
+++ b/Plan.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://intel-my.sharepoint.com/personal/qi2_sun_intel_com/Documents/Desktop/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="417" documentId="11_F25DC773A252ABDACC104852A99E562A5BDE58EB" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{8CE87C1D-72A3-4FAD-BF02-59808A8F7AFD}"/>
+  <xr:revisionPtr revIDLastSave="432" documentId="11_F25DC773A252ABDACC104852A99E562A5BDE58EB" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{82C9CAEF-3436-467B-9F9B-8FDEFA86722A}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="17640" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="33" uniqueCount="27">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="36" uniqueCount="31">
   <si>
     <t>READ</t>
   </si>
@@ -45,9 +45,6 @@
     <t>torch.api</t>
   </si>
   <si>
-    <t>三篇</t>
-  </si>
-  <si>
     <t>efficientDet</t>
   </si>
   <si>
@@ -106,13 +103,28 @@
   </si>
   <si>
     <t>Aug：Cls，Det</t>
+  </si>
+  <si>
+    <t>并行化JobLib</t>
+  </si>
+  <si>
+    <t>Wide&amp;Deep</t>
+  </si>
+  <si>
+    <t>Netron</t>
+  </si>
+  <si>
+    <t>Onnex</t>
+  </si>
+  <si>
+    <t>Torch跑起来</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="6" x14ac:knownFonts="1">
+  <fonts count="7" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -150,6 +162,14 @@
       <b/>
       <sz val="15"/>
       <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color theme="10"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -208,10 +228,11 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="25">
+  <cellXfs count="26">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
@@ -237,8 +258,10 @@
     <xf numFmtId="0" fontId="4" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="6" fillId="7" borderId="0" xfId="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="2">
+    <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -520,7 +543,7 @@
   <dimension ref="A1:W26"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="Q14" sqref="Q14"/>
+      <selection activeCell="P21" sqref="P21:W29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -560,7 +583,7 @@
     </row>
     <row r="2" spans="1:23" ht="19.5" x14ac:dyDescent="0.3">
       <c r="A2" s="16" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B2" s="8"/>
       <c r="C2" s="8"/>
@@ -569,7 +592,7 @@
       <c r="F2" s="7"/>
       <c r="G2" s="7"/>
       <c r="H2" s="14" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="I2" s="9"/>
       <c r="J2" s="9"/>
@@ -579,13 +602,13 @@
       <c r="N2" s="10"/>
       <c r="O2" s="10"/>
       <c r="P2" s="21" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="Q2" s="19"/>
       <c r="R2" s="19"/>
       <c r="S2" s="19"/>
       <c r="T2" s="22" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="U2" s="2"/>
       <c r="V2" s="2"/>
@@ -593,7 +616,9 @@
     </row>
     <row r="3" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A3" s="7"/>
-      <c r="B3" s="8"/>
+      <c r="B3" s="8" t="s">
+        <v>26</v>
+      </c>
       <c r="C3" s="8"/>
       <c r="D3" s="8"/>
       <c r="E3" s="8"/>
@@ -602,7 +627,7 @@
       <c r="H3" s="9"/>
       <c r="I3" s="10"/>
       <c r="J3" s="9" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="K3" s="13"/>
       <c r="L3" s="10"/>
@@ -637,26 +662,24 @@
       <c r="N4" s="10"/>
       <c r="O4" s="10"/>
       <c r="P4" s="20" t="s">
-        <v>24</v>
-      </c>
-      <c r="Q4" s="19" t="s">
         <v>23</v>
+      </c>
+      <c r="Q4" s="25" t="s">
+        <v>22</v>
       </c>
       <c r="R4" s="19"/>
       <c r="S4" s="20"/>
-      <c r="T4" s="3"/>
+      <c r="T4" s="3" t="s">
+        <v>30</v>
+      </c>
       <c r="U4" s="3"/>
       <c r="V4" s="3"/>
       <c r="W4" s="3"/>
     </row>
     <row r="5" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A5" s="7"/>
-      <c r="B5" s="8" t="s">
-        <v>4</v>
-      </c>
-      <c r="C5" s="7" t="s">
-        <v>6</v>
-      </c>
+      <c r="B5" s="7"/>
+      <c r="C5" s="7"/>
       <c r="D5" s="7"/>
       <c r="E5" s="7"/>
       <c r="F5" s="7"/>
@@ -670,10 +693,10 @@
       <c r="N5" s="10"/>
       <c r="O5" s="10"/>
       <c r="P5" s="19" t="s">
+        <v>24</v>
+      </c>
+      <c r="Q5" s="19" t="s">
         <v>25</v>
-      </c>
-      <c r="Q5" s="19" t="s">
-        <v>26</v>
       </c>
       <c r="R5" s="19"/>
       <c r="S5" s="20"/>
@@ -685,13 +708,13 @@
     <row r="6" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A6" s="7"/>
       <c r="B6" s="8" t="s">
+        <v>9</v>
+      </c>
+      <c r="C6" s="7" t="s">
         <v>10</v>
       </c>
-      <c r="C6" s="7" t="s">
+      <c r="D6" s="7" t="s">
         <v>11</v>
-      </c>
-      <c r="D6" s="7" t="s">
-        <v>12</v>
       </c>
       <c r="E6" s="7"/>
       <c r="F6" s="7"/>
@@ -716,7 +739,7 @@
     <row r="7" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A7" s="7"/>
       <c r="B7" s="8" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C7" s="8"/>
       <c r="D7" s="8"/>
@@ -731,7 +754,9 @@
       <c r="M7" s="10"/>
       <c r="N7" s="10"/>
       <c r="O7" s="10"/>
-      <c r="P7" s="19"/>
+      <c r="P7" s="19" t="s">
+        <v>27</v>
+      </c>
       <c r="Q7" s="19"/>
       <c r="R7" s="19"/>
       <c r="S7" s="20"/>
@@ -756,8 +781,12 @@
       <c r="M8" s="10"/>
       <c r="N8" s="10"/>
       <c r="O8" s="10"/>
-      <c r="P8" s="19"/>
-      <c r="Q8" s="19"/>
+      <c r="P8" s="19" t="s">
+        <v>28</v>
+      </c>
+      <c r="Q8" s="19" t="s">
+        <v>29</v>
+      </c>
       <c r="R8" s="19"/>
       <c r="S8" s="19"/>
       <c r="T8" s="2"/>
@@ -844,7 +873,7 @@
     </row>
     <row r="12" spans="1:23" ht="19.5" x14ac:dyDescent="0.3">
       <c r="A12" s="17" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B12" s="12"/>
       <c r="C12" s="11"/>
@@ -853,7 +882,7 @@
       <c r="F12" s="12"/>
       <c r="G12" s="12"/>
       <c r="H12" s="15" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="I12" s="4"/>
       <c r="J12" s="5"/>
@@ -874,7 +903,7 @@
     <row r="13" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A13" s="11"/>
       <c r="B13" s="12" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="C13" s="11"/>
       <c r="D13" s="11"/>
@@ -884,11 +913,11 @@
       <c r="H13" s="4"/>
       <c r="I13" s="4"/>
       <c r="J13" s="4" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="K13" s="4"/>
       <c r="L13" s="5" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="M13" s="5"/>
       <c r="N13" s="5"/>
@@ -913,11 +942,11 @@
       <c r="H14" s="4"/>
       <c r="I14" s="4"/>
       <c r="J14" s="4" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="K14" s="4"/>
       <c r="L14" s="4" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="M14" s="5"/>
       <c r="N14" s="5"/>
@@ -934,7 +963,7 @@
     <row r="15" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A15" s="11"/>
       <c r="B15" s="11" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="C15" s="11"/>
       <c r="D15" s="11"/>
@@ -944,7 +973,7 @@
       <c r="H15" s="4"/>
       <c r="I15" s="4"/>
       <c r="J15" s="4" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="K15" s="4"/>
       <c r="L15" s="4"/>
@@ -963,10 +992,10 @@
     <row r="16" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A16" s="11"/>
       <c r="B16" s="11" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="C16" s="12" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="D16" s="11"/>
       <c r="E16" s="11"/>
@@ -1022,7 +1051,7 @@
       <c r="A18" s="11"/>
       <c r="B18" s="11"/>
       <c r="C18" s="11" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="D18" s="11"/>
       <c r="E18" s="11"/>
@@ -1119,7 +1148,10 @@
       <c r="N26" s="1"/>
     </row>
   </sheetData>
+  <hyperlinks>
+    <hyperlink ref="Q4" r:id="rId1" xr:uid="{63D68108-8A72-41E2-A9E3-BCDA31AFE270}"/>
+  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId1"/>
+  <pageSetup orientation="portrait" r:id="rId2"/>
 </worksheet>
 </file>